--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDSBaPCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -53,9 +58,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Do Suppliers Bid at Peak Capacity Factors</t>
-  </si>
-  <si>
     <t>Certain plant types, such as coal and natural gas, are capable of running for most</t>
   </si>
   <si>
@@ -114,12 +116,24 @@
   </si>
   <si>
     <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,8 +174,8 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,6 +186,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -220,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,77 +507,77 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -573,9 +590,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -583,14 +602,14 @@
     <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -609,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +641,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -665,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,12 +692,12 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -687,11 +706,38 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -952,13 +998,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{522021F2-F51A-4C57-902C-E4B4BE1E4379}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E1AC9E-FC70-4462-837A-1C977CE36C45}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0784D06A-16E1-40DA-B1CC-42EE4F57C99E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A079EC84-DA3C-4D91-B4C2-A208014F60BD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D3C8991-5957-4E59-8420-2C6D7491163A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1305797A-D163-424F-9B8B-59B3462947D9}"/>
 </file>
--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B7EC880F-D7B8-4EFF-B441-7D939866CE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D8CBD1A-1ADA-41C9-9853-44EEB2867D60}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -128,13 +137,16 @@
   </si>
   <si>
     <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
+  </si>
+  <si>
+    <t>set value for coal to 0, because HK  has commend control to reduce coal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +158,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,12 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +290,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,6 +342,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,10 +534,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -578,6 +634,11 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -586,14 +647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +673,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +762,7 @@
       </c>
       <c r="B13">
         <f>B2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -736,8 +797,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <f>B9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -746,6 +806,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -979,7 +1048,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -988,23 +1057,48 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E1AC9E-FC70-4462-837A-1C977CE36C45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1305797A-D163-424F-9B8B-59B3462947D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A079EC84-DA3C-4D91-B4C2-A208014F60BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E1AC9E-FC70-4462-837A-1C977CE36C45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1305797A-D163-424F-9B8B-59B3462947D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A079EC84-DA3C-4D91-B4C2-A208014F60BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>